--- a/input/PREP_tight.xlsx
+++ b/input/PREP_tight.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/tranosov_umich_edu/Documents/Documents/D/Michigan/Res/Female careers in location/Codes/matlab/JMP/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1196" documentId="8_{1257A13C-7CDD-45B3-91A9-B5EE2763487A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB6895E0-DD40-4EE2-B046-83A9057E50A2}"/>
+  <xr:revisionPtr revIDLastSave="1200" documentId="8_{1257A13C-7CDD-45B3-91A9-B5EE2763487A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCDE9163-DAB8-4678-A737-B079D3FC4D2E}"/>
   <bookViews>
     <workbookView xWindow="4080" yWindow="4080" windowWidth="2370" windowHeight="560" activeTab="1" xr2:uid="{3C89D72B-78E5-4CC5-9BC1-023C2A9E36C5}"/>
   </bookViews>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="H2">
         <f ca="1">RAND()</f>
-        <v>0.50169404161255271</v>
+        <v>8.3768752497524468E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H52" ca="1" si="1">RAND()</f>
-        <v>4.3715779428493917E-2</v>
+        <v>0.12178666268068816</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7133026942948999</v>
+        <v>0.42140595604322528</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51893561321951631</v>
+        <v>0.4504243357760811</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85333625277298042</v>
+        <v>0.21936736434597548</v>
       </c>
       <c r="I6" t="s">
         <v>251</v>
@@ -1915,7 +1915,7 @@
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10308227233791956</v>
+        <v>0.89632337681156204</v>
       </c>
       <c r="I7">
         <v>0.5</v>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18455668037813</v>
+        <v>0.62233459640425837</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -1982,7 +1982,7 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67386494372141104</v>
+        <v>0.87624394776095693</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="B10">
         <f>PARS!B10*$I$7+G10*(1-$I$7)*C10+(1-G10)*(1-$I$7)*D10</f>
-        <v>0.92728903462514878</v>
+        <v>0.86174571660873189</v>
       </c>
       <c r="C10">
         <f>PARS!C10</f>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="D10">
         <f>PARS!D10</f>
-        <v>1.2527629684953681</v>
+        <v>1.0986122886681098</v>
       </c>
       <c r="E10" t="b">
         <f t="shared" si="0"/>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16842470915141938</v>
+        <v>0.29565005025107649</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57020975486107972</v>
+        <v>0.19841010173467577</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47695556068336797</v>
+        <v>0.58205623762850367</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -2110,7 +2110,7 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17295468340853715</v>
+        <v>0.94242352493843984</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27553124588573408</v>
+        <v>0.9755295667181062</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -2174,7 +2174,7 @@
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9497455404176669</v>
+        <v>0.2878127301245923</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59145845925136342</v>
+        <v>0.72066213072074803</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40855263818737375</v>
+        <v>0.14934215240125104</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7095491756947041</v>
+        <v>0.717033001802171</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -2302,7 +2302,7 @@
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49325513483916283</v>
+        <v>0.22374550607326915</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -2334,7 +2334,7 @@
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84776989178507489</v>
+        <v>0.7001448223450264</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54821554359671509</v>
+        <v>0.24730397357516221</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7804855736818483E-2</v>
+        <v>0.63414159459352504</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -2430,7 +2430,7 @@
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66138280365027924</v>
+        <v>0.85516206592430732</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
@@ -2462,7 +2462,7 @@
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20310965075065601</v>
+        <v>0.31971066490441535</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60818238744492725</v>
+        <v>0.1327865767377302</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15935101707661004</v>
+        <v>0.11421718611505027</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
@@ -2535,11 +2535,11 @@
       </c>
       <c r="B27">
         <f>PARS!B27*$I$7+G27*(1-$I$7)*C27+(1-G27)*(1-$I$7)*D27</f>
-        <v>1.1717673820688403</v>
+        <v>1.1743454985169413</v>
       </c>
       <c r="C27">
         <f>PARS!C27</f>
-        <v>0.40546510810816438</v>
+        <v>0.53062825106217038</v>
       </c>
       <c r="D27">
         <f>PARS!D27</f>
@@ -2558,7 +2558,7 @@
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33041943484958036</v>
+        <v>0.48824224058728549</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51032904196162798</v>
+        <v>0.95863666971929817</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47965460723840758</v>
+        <v>0.94422843778548926</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -2654,7 +2654,7 @@
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25955557531254458</v>
+        <v>0.95229854667781355</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1352349159791183</v>
+        <v>0.96929752388071655</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="B32">
         <f>PARS!B32*$I$7+G32*(1-$I$7)*C32+(1-G32)*(1-$I$7)*D32</f>
-        <v>3.2007705986155779</v>
+        <v>3.2605108145752055</v>
       </c>
       <c r="C32">
         <f>PARS!C32</f>
-        <v>-1.3862943611198906</v>
+        <v>-0.40546510810816438</v>
       </c>
       <c r="D32">
         <f>PARS!D32</f>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67698177266988779</v>
+        <v>0.17281251795162067</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73455514077307704</v>
+        <v>0.17096852979225718</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
@@ -2782,7 +2782,7 @@
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51810704889369796</v>
+        <v>2.1330841314230464E-2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87572186707781074</v>
+        <v>0.52545886932965347</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57863617232058207</v>
+        <v>0.36086224214055662</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26828398163972877</v>
+        <v>0.74665612908167234</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="B38">
         <f>PARS!B38*$I$7+G38*(1-$I$7)*C38+(1-G38)*(1-$I$7)*D38</f>
-        <v>0.18941121527672114</v>
+        <v>0.1937892548070046</v>
       </c>
       <c r="C38">
         <f>PARS!C38</f>
-        <v>-4.0005334613699206E-2</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <f>PARS!D38</f>
@@ -2910,7 +2910,7 @@
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80804678155120513</v>
+        <v>0.25575260716617731</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89564645280879918</v>
+        <v>0.83693715836070659</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1282180392772998</v>
+        <v>0.24322294174749737</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
@@ -3006,7 +3006,7 @@
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15730710481331445</v>
+        <v>0.94049779645905607</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35598092458995179</v>
+        <v>0.76089359582201399</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
@@ -3070,7 +3070,7 @@
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5613948860931832E-2</v>
+        <v>0.64209639087520909</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21751435849896472</v>
+        <v>0.9520783587545375</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
@@ -3134,7 +3134,7 @@
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18250095252232867</v>
+        <v>7.8260987541381111E-2</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49669764507592862</v>
+        <v>0.22844129617445397</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2129188997666801</v>
+        <v>0.81822567696841064</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5276909767397502E-2</v>
+        <v>0.40320913062755959</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
@@ -3262,7 +3262,7 @@
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89436638028169602</v>
+        <v>0.65324695752599704</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
@@ -3294,7 +3294,7 @@
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72687043012979369</v>
+        <v>0.29687044305054622</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
@@ -3326,7 +3326,7 @@
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29164132263970077</v>
+        <v>0.43285736511895545</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
@@ -3357,7 +3357,7 @@
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73737784511975446</v>
+        <v>2.6307847042389754E-2</v>
       </c>
     </row>
   </sheetData>
@@ -33487,7 +33487,7 @@
       <pane xSplit="1" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34109,7 +34109,7 @@
       </c>
       <c r="D10">
         <f t="shared" si="6"/>
-        <v>1.2527629684953681</v>
+        <v>1.0986122886681098</v>
       </c>
       <c r="E10" s="15">
         <f>X10</f>
@@ -34119,7 +34119,7 @@
         <v>1.5</v>
       </c>
       <c r="G10" s="10">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H10">
         <v>5.12</v>
@@ -35241,7 +35241,7 @@
       </c>
       <c r="C27">
         <f>LN(F27)</f>
-        <v>0.40546510810816438</v>
+        <v>0.53062825106217038</v>
       </c>
       <c r="D27">
         <f>LN(G27)</f>
@@ -35252,7 +35252,7 @@
         <v>2.7118925237973301</v>
       </c>
       <c r="F27">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="G27" s="10">
         <v>4</v>
@@ -35588,7 +35588,7 @@
       </c>
       <c r="C32">
         <f>-LN(1/F32 -1)</f>
-        <v>-1.3862943611198906</v>
+        <v>-0.40546510810816438</v>
       </c>
       <c r="D32">
         <f>-LN(1/G32 -1)</f>
@@ -35599,7 +35599,7 @@
         <v>0.62363603584491722</v>
       </c>
       <c r="F32">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="G32" s="10">
         <v>0.999</v>
@@ -36002,7 +36002,7 @@
       </c>
       <c r="C38">
         <f>-LN(1/F38 -1)</f>
-        <v>-4.0005334613699206E-2</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <f>-LN(1/G38 -1)</f>
@@ -36013,7 +36013,7 @@
         <v>0.54963604156036339</v>
       </c>
       <c r="F38">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="G38" s="10">
         <v>0.56000000000000005</v>
